--- a/Carga Catalogo Integracion Bidireccional IPICYT.xlsx
+++ b/Carga Catalogo Integracion Bidireccional IPICYT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noroque\OneDrive - SyeSoftware\Documentos\IMSS\CONFIGURACIONES-NIVEL DIOS\INTEGRACIONES\IPICYT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael\Documents\CNS\INTEGRACIÓN  GLPI-REMEDY\Integraction-GLPI-Remedy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4042CB7D-E876-4859-BB51-DBD9FD5B9A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DF5AF2-41FE-46E2-8D9E-D8710C537D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{412B287B-7185-445F-A035-AD35E85AC80D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{412B287B-7185-445F-A035-AD35E85AC80D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="41">
-  <si>
-    <t>Type</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="42">
   <si>
     <t>Servicio_en_Remedy</t>
   </si>
@@ -56,27 +53,6 @@
     <t>Tipo_de_Solicitud</t>
   </si>
   <si>
-    <t>Cat_de_Producto_1</t>
-  </si>
-  <si>
-    <t>Cat_de_Producto_2</t>
-  </si>
-  <si>
-    <t>Cat_de_Producto_3</t>
-  </si>
-  <si>
-    <t>Producto</t>
-  </si>
-  <si>
-    <t>Categoría_Operacional_1</t>
-  </si>
-  <si>
-    <t>Categoría_Operacional_2</t>
-  </si>
-  <si>
-    <t>Categoría_Operacional_3</t>
-  </si>
-  <si>
     <t>Incidente</t>
   </si>
   <si>
@@ -162,6 +138,33 @@
   </si>
   <si>
     <t>MONITOREO</t>
+  </si>
+  <si>
+    <t>Tipo_de_Ticket</t>
+  </si>
+  <si>
+    <t>Categoria_de_Producto1</t>
+  </si>
+  <si>
+    <t>Categoria_de_Producto2</t>
+  </si>
+  <si>
+    <t>Categoria_de_Producto3</t>
+  </si>
+  <si>
+    <t>Nombre_del_producto</t>
+  </si>
+  <si>
+    <t>Categoria_Operacional1</t>
+  </si>
+  <si>
+    <t>Categoria_Operacional2</t>
+  </si>
+  <si>
+    <t>Categoria_Operacional3</t>
+  </si>
+  <si>
+    <t>WorkOrder</t>
   </si>
 </sst>
 </file>
@@ -217,7 +220,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -533,23 +536,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1428D7BD-8749-4B69-881E-49E568605584}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
     <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.5703125" customWidth="1"/>
     <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
@@ -560,937 +563,942 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" t="s">
-        <v>23</v>
-      </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L12" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L13" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K15" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L15" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K18" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L18" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L19" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H20" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="J20" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K20" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L20" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="J21" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K21" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L21" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H22" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="J22" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K22" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L22" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J23" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K23" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L23" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H24" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J24" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K24" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L24" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H25" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J25" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K25" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L25" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H26" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J26" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K26" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L26" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H27" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J27" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K27" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L27" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H28" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J28" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K28" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L28" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H29" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I29" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J29" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K29" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H30" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I30" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J30" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K30" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L30" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H31" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I31" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J31" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K31" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L31" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Carga Catalogo Integracion Bidireccional IPICYT.xlsx
+++ b/Carga Catalogo Integracion Bidireccional IPICYT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael\Documents\CNS\INTEGRACIÓN  GLPI-REMEDY\Integraction-GLPI-Remedy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DF5AF2-41FE-46E2-8D9E-D8710C537D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B8C6B3-8D4C-4AB8-8F43-A457A32B8987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{412B287B-7185-445F-A035-AD35E85AC80D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="42">
   <si>
     <t>Servicio_en_Remedy</t>
   </si>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1428D7BD-8749-4B69-881E-49E568605584}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,9 +801,6 @@
       <c r="H8" t="s">
         <v>32</v>
       </c>
-      <c r="I8" t="s">
-        <v>29</v>
-      </c>
       <c r="J8" t="s">
         <v>12</v>
       </c>
@@ -833,9 +830,6 @@
       <c r="H9" t="s">
         <v>32</v>
       </c>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
       <c r="J9" t="s">
         <v>12</v>
       </c>
@@ -864,9 +858,6 @@
       </c>
       <c r="H10" t="s">
         <v>32</v>
-      </c>
-      <c r="I10" t="s">
-        <v>29</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
